--- a/data_year/zb/批发和零售业/连锁零售企业/按登记注册类型分连锁零售企业年末从业人数.xlsx
+++ b/data_year/zb/批发和零售业/连锁零售企业/按登记注册类型分连锁零售企业年末从业人数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG20"/>
+  <dimension ref="A1:AG13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -598,1786 +598,1171 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
+          <t>2010年</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>2.0676</v>
+      </c>
+      <c r="C2" t="n">
+        <v>16.3963</v>
+      </c>
       <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
+      <c r="E2" t="n">
+        <v>57.3508</v>
+      </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+      <c r="H2" t="n">
+        <v>0.8182</v>
+      </c>
+      <c r="I2" t="n">
+        <v>179.6925</v>
+      </c>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>0.428</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.2594</v>
+      </c>
+      <c r="M2" t="n">
+        <v>15.1349</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.2183</v>
+      </c>
+      <c r="O2" t="n">
+        <v>27.4361</v>
+      </c>
+      <c r="P2" t="n">
+        <v>8.7539</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>57.7788</v>
+      </c>
+      <c r="R2" t="n">
+        <v>7.0135</v>
+      </c>
+      <c r="S2" t="n">
+        <v>3.3914</v>
+      </c>
       <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="inlineStr"/>
-      <c r="AA2" t="inlineStr"/>
-      <c r="AB2" t="inlineStr"/>
-      <c r="AC2" t="inlineStr"/>
-      <c r="AD2" t="inlineStr"/>
+      <c r="U2" t="n">
+        <v>18.0347</v>
+      </c>
+      <c r="V2" t="n">
+        <v>7.5873</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.4388</v>
+      </c>
+      <c r="X2" t="n">
+        <v>25.8028</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>1.2019</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>3.7592</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>31.2027</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0.2951</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>1.1044</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>70.90689999999999</v>
+      </c>
       <c r="AE2" t="n">
-        <v>63.3183</v>
+        <v>225.1633</v>
       </c>
       <c r="AF2" t="inlineStr"/>
-      <c r="AG2" t="inlineStr"/>
+      <c r="AG2" t="n">
+        <v>2.4515</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.9711</v>
+        <v>3.0654</v>
       </c>
       <c r="C3" t="n">
-        <v>5.2761</v>
+        <v>18.1686</v>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="n">
-        <v>25.8323</v>
-      </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="n">
-        <v>0.07000000000000001</v>
-      </c>
+        <v>61.7581</v>
+      </c>
+      <c r="F3" t="n">
+        <v>3.6931</v>
+      </c>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
-        <v>0.0944</v>
+        <v>1.3012</v>
       </c>
       <c r="I3" t="n">
-        <v>78.27330000000001</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1.0162</v>
-      </c>
+        <v>198.2213</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>0.9573</v>
+        <v>0.3851</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0808</v>
+        <v>0.201</v>
       </c>
       <c r="M3" t="n">
-        <v>8.1142</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+        <v>14.2769</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.0619</v>
+      </c>
       <c r="O3" t="n">
-        <v>8.4238</v>
+        <v>30.7958</v>
       </c>
       <c r="P3" t="n">
-        <v>0.1766</v>
+        <v>9.4999</v>
       </c>
       <c r="Q3" t="n">
-        <v>27.9629</v>
+        <v>62.1432</v>
       </c>
       <c r="R3" t="n">
-        <v>0.6405</v>
+        <v>5.1025</v>
       </c>
       <c r="S3" t="n">
-        <v>4.7679</v>
+        <v>3.1917</v>
       </c>
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="n">
-        <v>5.5997</v>
+        <v>20.0383</v>
       </c>
       <c r="V3" t="n">
-        <v>0.0992</v>
+        <v>8.051</v>
       </c>
       <c r="W3" t="n">
-        <v>0.081</v>
+        <v>0.4245</v>
       </c>
       <c r="X3" t="n">
-        <v>11.8269</v>
+        <v>28.0487</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.1653</v>
+        <v>0.6357</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.8472</v>
+        <v>3.997</v>
       </c>
       <c r="AA3" t="n">
-        <v>14.2576</v>
+        <v>33.1059</v>
       </c>
       <c r="AB3" t="n">
-        <v>1.167</v>
+        <v>0.2272</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.9603</v>
+        <v>0.4536</v>
       </c>
       <c r="AD3" t="n">
-        <v>24.2879</v>
+        <v>85.73090000000001</v>
       </c>
       <c r="AE3" t="n">
-        <v>92.40600000000001</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>0</v>
-      </c>
+        <v>249.0554</v>
+      </c>
+      <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="n">
-        <v>1.429</v>
+        <v>0.9824000000000001</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.535</v>
+        <v>2.4086</v>
       </c>
       <c r="C4" t="n">
-        <v>6.0878</v>
+        <v>17.6396</v>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="n">
-        <v>30.2602</v>
-      </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="n">
-        <v>0.07199999999999999</v>
-      </c>
+        <v>68.43210000000001</v>
+      </c>
+      <c r="F4" t="n">
+        <v>3.9223</v>
+      </c>
+      <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
-        <v>0.1198</v>
+        <v>1.8786</v>
       </c>
       <c r="I4" t="n">
-        <v>89.2342</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1.1122</v>
-      </c>
+        <v>207.0679</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="n">
-        <v>1.0257</v>
+        <v>0.5473</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0848</v>
+        <v>0.2359</v>
       </c>
       <c r="M4" t="n">
-        <v>8.131500000000001</v>
+        <v>15.8153</v>
       </c>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="n">
-        <v>9.834199999999999</v>
+        <v>27.7184</v>
       </c>
       <c r="P4" t="n">
-        <v>0.2114</v>
+        <v>7.6338</v>
       </c>
       <c r="Q4" t="n">
-        <v>32.3054</v>
+        <v>68.9794</v>
       </c>
       <c r="R4" t="n">
-        <v>0.712</v>
+        <v>4.5554</v>
       </c>
       <c r="S4" t="n">
-        <v>5.461</v>
-      </c>
-      <c r="T4" t="inlineStr"/>
+        <v>3.6644</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.2509</v>
+      </c>
       <c r="U4" t="n">
-        <v>6.415</v>
+        <v>21.5621</v>
       </c>
       <c r="V4" t="n">
-        <v>0.09429999999999999</v>
+        <v>9.1691</v>
       </c>
       <c r="W4" t="n">
-        <v>0.093</v>
+        <v>0.3691</v>
       </c>
       <c r="X4" t="n">
-        <v>12.879</v>
+        <v>29.9605</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.2497</v>
+        <v>0.8663999999999999</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.9941</v>
+        <v>3.1066</v>
       </c>
       <c r="AA4" t="n">
-        <v>15.6182</v>
+        <v>34.3026</v>
       </c>
       <c r="AB4" t="n">
-        <v>1.269</v>
+        <v>0.2893</v>
       </c>
       <c r="AC4" t="n">
-        <v>1.0893</v>
+        <v>0.4856</v>
       </c>
       <c r="AD4" t="n">
-        <v>29.1243</v>
+        <v>84.2543</v>
       </c>
       <c r="AE4" t="n">
-        <v>128.2</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>0</v>
-      </c>
+        <v>256.3484</v>
+      </c>
+      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="n">
-        <v>1.5767</v>
+        <v>1.0628</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6.1577</v>
+        <v>2.4845</v>
       </c>
       <c r="C5" t="n">
-        <v>9.679</v>
-      </c>
-      <c r="D5" t="inlineStr"/>
+        <v>18.1881</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.0035</v>
+      </c>
       <c r="E5" t="n">
-        <v>40.0513</v>
-      </c>
-      <c r="F5" t="inlineStr"/>
+        <v>66.27209999999999</v>
+      </c>
+      <c r="F5" t="n">
+        <v>2.8415</v>
+      </c>
       <c r="G5" t="n">
-        <v>0.062</v>
+        <v>0.043</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1848</v>
+        <v>1.6077</v>
       </c>
       <c r="I5" t="n">
-        <v>130.9951</v>
+        <v>205.4961</v>
       </c>
       <c r="J5" t="n">
-        <v>1.7474</v>
+        <v>0.0043</v>
       </c>
       <c r="K5" t="n">
-        <v>1.1586</v>
+        <v>0.7039</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1281</v>
+        <v>0.2026</v>
       </c>
       <c r="M5" t="n">
-        <v>14.8477</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+        <v>14.819</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.024</v>
+      </c>
       <c r="O5" t="n">
-        <v>16.82</v>
+        <v>28.8462</v>
       </c>
       <c r="P5" t="n">
-        <v>0.9833</v>
+        <v>8.146100000000001</v>
       </c>
       <c r="Q5" t="n">
-        <v>41.2099</v>
+        <v>66.976</v>
       </c>
       <c r="R5" t="n">
-        <v>0.1222</v>
+        <v>4.8548</v>
       </c>
       <c r="S5" t="n">
-        <v>10.5414</v>
+        <v>3.9988</v>
       </c>
       <c r="T5" t="n">
-        <v>0.576</v>
+        <v>0.4432</v>
       </c>
       <c r="U5" t="n">
-        <v>12.2927</v>
+        <v>21.6019</v>
       </c>
       <c r="V5" t="n">
-        <v>1.0531</v>
+        <v>9.4636</v>
       </c>
       <c r="W5" t="n">
-        <v>0.4195</v>
+        <v>0.3597</v>
       </c>
       <c r="X5" t="n">
-        <v>18.5539</v>
+        <v>31.0055</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.0313</v>
+        <v>0.8037</v>
       </c>
       <c r="Z5" t="n">
-        <v>1.1286</v>
+        <v>5.601</v>
       </c>
       <c r="AA5" t="n">
-        <v>21.1333</v>
+        <v>37.7699</v>
       </c>
       <c r="AB5" t="n">
-        <v>1.9445</v>
+        <v>0.2499</v>
       </c>
       <c r="AC5" t="n">
-        <v>2.0602</v>
+        <v>0.4028</v>
       </c>
       <c r="AD5" t="n">
-        <v>48.6915</v>
+        <v>82.2024</v>
       </c>
       <c r="AE5" t="n">
-        <v>148.8235</v>
+        <v>255.9442</v>
       </c>
       <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="n">
-        <v>0.9232</v>
+        <v>1.4684</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.9567</v>
+        <v>2.3644</v>
       </c>
       <c r="C6" t="n">
-        <v>13.7796</v>
-      </c>
-      <c r="D6" t="inlineStr"/>
+        <v>16.9936</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.0015</v>
+      </c>
       <c r="E6" t="n">
-        <v>42.513</v>
-      </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
+        <v>64.4552</v>
+      </c>
+      <c r="F6" t="n">
+        <v>3.7528</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.0381</v>
+      </c>
       <c r="H6" t="n">
-        <v>0.6173999999999999</v>
+        <v>1.5318</v>
       </c>
       <c r="I6" t="n">
-        <v>158.7883</v>
+        <v>199.3246</v>
       </c>
       <c r="J6" t="n">
-        <v>1.6863</v>
+        <v>0.0029</v>
       </c>
       <c r="K6" t="n">
-        <v>3.1138</v>
+        <v>0.6715</v>
       </c>
       <c r="L6" t="n">
-        <v>0.2095</v>
+        <v>0.1826</v>
       </c>
       <c r="M6" t="n">
-        <v>10.3144</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+        <v>12.2751</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.0289</v>
+      </c>
       <c r="O6" t="n">
-        <v>22.2801</v>
+        <v>28.2612</v>
       </c>
       <c r="P6" t="n">
-        <v>3.5229</v>
+        <v>8.8728</v>
       </c>
       <c r="Q6" t="n">
-        <v>45.6268</v>
+        <v>65.1267</v>
       </c>
       <c r="R6" t="n">
-        <v>0.6587</v>
+        <v>5.3198</v>
       </c>
       <c r="S6" t="n">
-        <v>3.8778</v>
+        <v>3.4549</v>
       </c>
       <c r="T6" t="n">
-        <v>0.6825</v>
+        <v>0.2365</v>
       </c>
       <c r="U6" t="n">
-        <v>5.9929</v>
+        <v>22.5813</v>
       </c>
       <c r="V6" t="n">
-        <v>1.4461</v>
+        <v>9.817299999999999</v>
       </c>
       <c r="W6" t="n">
-        <v>0.6212</v>
+        <v>0.3554</v>
       </c>
       <c r="X6" t="n">
-        <v>20.2564</v>
+        <v>29.3635</v>
       </c>
       <c r="Y6" t="n">
-        <v>1.5784</v>
+        <v>0.7119</v>
       </c>
       <c r="Z6" t="n">
-        <v>1.1844</v>
+        <v>6.0653</v>
       </c>
       <c r="AA6" t="n">
-        <v>23.6404</v>
+        <v>36.4961</v>
       </c>
       <c r="AB6" t="n">
-        <v>1.9053</v>
+        <v>0.2236</v>
       </c>
       <c r="AC6" t="n">
-        <v>1.0498</v>
+        <v>0.5149</v>
       </c>
       <c r="AD6" t="n">
-        <v>74.5172</v>
+        <v>82.0391</v>
       </c>
       <c r="AE6" t="n">
-        <v>176.5236</v>
+        <v>250.1671</v>
       </c>
       <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="n">
-        <v>1.117</v>
+        <v>1.1173</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.0099</v>
+        <v>2.3032</v>
       </c>
       <c r="C7" t="n">
-        <v>15.1285</v>
+        <v>15.7269</v>
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="n">
-        <v>49.0863</v>
-      </c>
-      <c r="F7" t="inlineStr"/>
+        <v>62.9833</v>
+      </c>
+      <c r="F7" t="n">
+        <v>3.9144</v>
+      </c>
       <c r="G7" t="n">
-        <v>0.06809999999999999</v>
+        <v>0.041</v>
       </c>
       <c r="H7" t="n">
-        <v>0.3554</v>
+        <v>1.6087</v>
       </c>
       <c r="I7" t="n">
-        <v>143.6477</v>
+        <v>195.5476</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0065</v>
+        <v>0.003</v>
       </c>
       <c r="K7" t="n">
-        <v>1.1426</v>
+        <v>0.6086</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1713</v>
+        <v>0.0767</v>
       </c>
       <c r="M7" t="n">
-        <v>13.3737</v>
+        <v>12.3826</v>
       </c>
       <c r="N7" t="n">
-        <v>0.0297</v>
+        <v>0.2937</v>
       </c>
       <c r="O7" t="n">
-        <v>23.4665</v>
+        <v>28.4055</v>
       </c>
       <c r="P7" t="n">
-        <v>5.2984</v>
+        <v>10.079</v>
       </c>
       <c r="Q7" t="n">
-        <v>50.2289</v>
+        <v>63.5919</v>
       </c>
       <c r="R7" t="n">
-        <v>0.3223</v>
+        <v>6.0466</v>
       </c>
       <c r="S7" t="n">
-        <v>3.5676</v>
+        <v>3.7363</v>
       </c>
       <c r="T7" t="n">
-        <v>0.063</v>
+        <v>0.2017</v>
       </c>
       <c r="U7" t="n">
-        <v>7.5848</v>
+        <v>24.1248</v>
       </c>
       <c r="V7" t="n">
-        <v>3.6319</v>
+        <v>10.2258</v>
       </c>
       <c r="W7" t="n">
-        <v>0.4668</v>
+        <v>0.342</v>
       </c>
       <c r="X7" t="n">
-        <v>21.4445</v>
+        <v>30.4472</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.9998</v>
+        <v>0.6854</v>
       </c>
       <c r="Z7" t="n">
-        <v>1.4795</v>
+        <v>6.2537</v>
       </c>
       <c r="AA7" t="n">
-        <v>24.3906</v>
+        <v>37.7283</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.2855</v>
+        <v>0.1207</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.6879</v>
+        <v>0.4559</v>
       </c>
       <c r="AD7" t="n">
-        <v>53.0127</v>
+        <v>78.60720000000001</v>
       </c>
       <c r="AE7" t="n">
-        <v>186.1901</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>0.0396</v>
-      </c>
+        <v>248.0779</v>
+      </c>
+      <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="n">
-        <v>1.313</v>
+        <v>1.0523</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.1323</v>
+        <v>2.1032</v>
       </c>
       <c r="C8" t="n">
-        <v>16.8207</v>
+        <v>13.6436</v>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>57.6027</v>
-      </c>
-      <c r="F8" t="inlineStr"/>
+        <v>62.4516</v>
+      </c>
+      <c r="F8" t="n">
+        <v>4.2148</v>
+      </c>
       <c r="G8" t="n">
-        <v>0.07099999999999999</v>
+        <v>0.0401</v>
       </c>
       <c r="H8" t="n">
-        <v>0.3928</v>
+        <v>1.556</v>
       </c>
       <c r="I8" t="n">
-        <v>161.4948</v>
+        <v>193.7662</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0053</v>
+        <v>0.0026</v>
       </c>
       <c r="K8" t="n">
-        <v>1.1682</v>
+        <v>1.983</v>
       </c>
       <c r="L8" t="n">
-        <v>0.13</v>
+        <v>0.0751</v>
       </c>
       <c r="M8" t="n">
-        <v>13.7382</v>
+        <v>11.5099</v>
       </c>
       <c r="N8" t="n">
-        <v>0.1107</v>
+        <v>0.3646</v>
       </c>
       <c r="O8" t="n">
-        <v>26.5974</v>
+        <v>26.7233</v>
       </c>
       <c r="P8" t="n">
-        <v>6.5337</v>
+        <v>10.6119</v>
       </c>
       <c r="Q8" t="n">
-        <v>58.7709</v>
+        <v>64.4346</v>
       </c>
       <c r="R8" t="n">
-        <v>0.2782</v>
+        <v>5.8742</v>
       </c>
       <c r="S8" t="n">
-        <v>4.0339</v>
+        <v>3.8013</v>
       </c>
       <c r="T8" t="n">
-        <v>0.0385</v>
+        <v>0.2163</v>
       </c>
       <c r="U8" t="n">
-        <v>8.9854</v>
+        <v>24.5025</v>
       </c>
       <c r="V8" t="n">
-        <v>4.6348</v>
+        <v>10.3959</v>
       </c>
       <c r="W8" t="n">
-        <v>0.5142</v>
+        <v>0.3047</v>
       </c>
       <c r="X8" t="n">
-        <v>24.9907</v>
+        <v>31.0898</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.0539</v>
+        <v>0.4835</v>
       </c>
       <c r="Z8" t="n">
-        <v>2.0777</v>
+        <v>6.6215</v>
       </c>
       <c r="AA8" t="n">
-        <v>28.6365</v>
+        <v>38.4995</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.2483</v>
+        <v>0.1178</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.8115</v>
+        <v>0.4713</v>
       </c>
       <c r="AD8" t="n">
-        <v>57.3245</v>
+        <v>76.2456</v>
       </c>
       <c r="AE8" t="n">
-        <v>197.0776</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>0.042</v>
-      </c>
+        <v>244.992</v>
+      </c>
+      <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="n">
-        <v>1.5721</v>
+        <v>0.9315</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5.5333</v>
+        <v>1.3811</v>
       </c>
       <c r="C9" t="n">
-        <v>15.9271</v>
-      </c>
-      <c r="D9" t="inlineStr"/>
+        <v>12.1661</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.0163</v>
+      </c>
       <c r="E9" t="n">
-        <v>52.8179</v>
-      </c>
-      <c r="F9" t="inlineStr"/>
+        <v>64.9436</v>
+      </c>
+      <c r="F9" t="n">
+        <v>4.5968</v>
+      </c>
       <c r="G9" t="n">
-        <v>0.2936</v>
+        <v>0.0384</v>
       </c>
       <c r="H9" t="n">
-        <v>0.365</v>
+        <v>1.5674</v>
       </c>
       <c r="I9" t="n">
-        <v>166.2756</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
+        <v>185.2219</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.0035</v>
+      </c>
       <c r="K9" t="n">
-        <v>0.4189</v>
+        <v>1.8954</v>
       </c>
       <c r="L9" t="n">
-        <v>0.2327</v>
+        <v>0.07389999999999999</v>
       </c>
       <c r="M9" t="n">
-        <v>11.467</v>
+        <v>11.0215</v>
       </c>
       <c r="N9" t="n">
-        <v>0.1179</v>
+        <v>0.3663</v>
       </c>
       <c r="O9" t="n">
-        <v>29.7518</v>
+        <v>24.8204</v>
       </c>
       <c r="P9" t="n">
-        <v>8.173500000000001</v>
+        <v>10.8906</v>
       </c>
       <c r="Q9" t="n">
-        <v>53.2368</v>
+        <v>66.839</v>
       </c>
       <c r="R9" t="n">
-        <v>5.8261</v>
+        <v>6.3255</v>
       </c>
       <c r="S9" t="n">
-        <v>3.5549</v>
-      </c>
-      <c r="T9" t="inlineStr"/>
+        <v>3.7004</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0.2435</v>
+      </c>
       <c r="U9" t="n">
-        <v>14.8565</v>
+        <v>24.8748</v>
       </c>
       <c r="V9" t="n">
-        <v>5.429</v>
+        <v>10.0086</v>
       </c>
       <c r="W9" t="n">
-        <v>0.5261</v>
+        <v>0.1163</v>
       </c>
       <c r="X9" t="n">
-        <v>25.0545</v>
+        <v>33.2997</v>
       </c>
       <c r="Y9" t="n">
-        <v>1.6174</v>
+        <v>0.4072</v>
       </c>
       <c r="Z9" t="n">
-        <v>2.9922</v>
+        <v>5.7973</v>
       </c>
       <c r="AA9" t="n">
-        <v>30.1902</v>
+        <v>39.6205</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.5315</v>
+        <v>0.1158</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.9681</v>
+        <v>0.4343</v>
       </c>
       <c r="AD9" t="n">
-        <v>67.01909999999999</v>
+        <v>64.72790000000001</v>
       </c>
       <c r="AE9" t="n">
-        <v>210.8839</v>
+        <v>234.9171</v>
       </c>
       <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="n">
-        <v>2.4979</v>
+        <v>0.8955</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2.0676</v>
+        <v>1.3769</v>
       </c>
       <c r="C10" t="n">
-        <v>16.3963</v>
-      </c>
-      <c r="D10" t="inlineStr"/>
+        <v>11.4942</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.06569999999999999</v>
+      </c>
       <c r="E10" t="n">
-        <v>57.3508</v>
-      </c>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
+        <v>68.1283</v>
+      </c>
+      <c r="F10" t="n">
+        <v>5.045</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.0375</v>
+      </c>
       <c r="H10" t="n">
-        <v>0.8182</v>
+        <v>0.8796</v>
       </c>
       <c r="I10" t="n">
-        <v>179.6925</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
+        <v>184.8283</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.0026</v>
+      </c>
       <c r="K10" t="n">
-        <v>0.428</v>
+        <v>1.4224</v>
       </c>
       <c r="L10" t="n">
-        <v>0.2594</v>
+        <v>0.0902</v>
       </c>
       <c r="M10" t="n">
-        <v>15.1349</v>
+        <v>9.5909</v>
       </c>
       <c r="N10" t="n">
-        <v>0.2183</v>
+        <v>0.523</v>
       </c>
       <c r="O10" t="n">
-        <v>27.4361</v>
+        <v>27.5461</v>
       </c>
       <c r="P10" t="n">
-        <v>8.7539</v>
+        <v>14.0863</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.7788</v>
+        <v>69.55070000000001</v>
       </c>
       <c r="R10" t="n">
-        <v>7.0135</v>
+        <v>5.8834</v>
       </c>
       <c r="S10" t="n">
-        <v>3.3914</v>
-      </c>
-      <c r="T10" t="inlineStr"/>
+        <v>3.0991</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.1728</v>
+      </c>
       <c r="U10" t="n">
-        <v>18.0347</v>
+        <v>26.6201</v>
       </c>
       <c r="V10" t="n">
-        <v>7.5873</v>
+        <v>12.4198</v>
       </c>
       <c r="W10" t="n">
-        <v>0.4388</v>
+        <v>0.0917</v>
       </c>
       <c r="X10" t="n">
-        <v>25.8028</v>
+        <v>34.6006</v>
       </c>
       <c r="Y10" t="n">
-        <v>1.2019</v>
+        <v>0.4435</v>
       </c>
       <c r="Z10" t="n">
-        <v>3.7592</v>
+        <v>5.3189</v>
       </c>
       <c r="AA10" t="n">
-        <v>31.2027</v>
+        <v>40.4547</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.2951</v>
+        <v>0.1303</v>
       </c>
       <c r="AC10" t="n">
-        <v>1.1044</v>
+        <v>0.3975</v>
       </c>
       <c r="AD10" t="n">
-        <v>70.90689999999999</v>
+        <v>63.189</v>
       </c>
       <c r="AE10" t="n">
-        <v>225.1633</v>
+        <v>238.9945</v>
       </c>
       <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="n">
-        <v>2.4515</v>
+        <v>0.6356000000000001</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.0654</v>
+        <v>1.2831</v>
       </c>
       <c r="C11" t="n">
-        <v>18.1686</v>
-      </c>
-      <c r="D11" t="inlineStr"/>
+        <v>12.4016</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.4265</v>
+      </c>
       <c r="E11" t="n">
-        <v>61.7581</v>
+        <v>67.7948</v>
       </c>
       <c r="F11" t="n">
-        <v>3.6931</v>
-      </c>
-      <c r="G11" t="inlineStr"/>
+        <v>0.0447</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.0372</v>
+      </c>
       <c r="H11" t="n">
-        <v>1.3012</v>
+        <v>0.787</v>
       </c>
       <c r="I11" t="n">
-        <v>198.2213</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
+        <v>169.3848</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.0013</v>
+      </c>
       <c r="K11" t="n">
-        <v>0.3851</v>
+        <v>0.8135</v>
       </c>
       <c r="L11" t="n">
-        <v>0.201</v>
+        <v>0.0781</v>
       </c>
       <c r="M11" t="n">
-        <v>14.2769</v>
+        <v>8.7745</v>
       </c>
       <c r="N11" t="n">
-        <v>0.0619</v>
+        <v>7.6217</v>
       </c>
       <c r="O11" t="n">
-        <v>30.7958</v>
+        <v>36.2739</v>
       </c>
       <c r="P11" t="n">
-        <v>9.4999</v>
+        <v>14.541</v>
       </c>
       <c r="Q11" t="n">
-        <v>62.1432</v>
+        <v>68.6083</v>
       </c>
       <c r="R11" t="n">
-        <v>5.1025</v>
+        <v>6.3403</v>
       </c>
       <c r="S11" t="n">
-        <v>3.1917</v>
-      </c>
-      <c r="T11" t="inlineStr"/>
+        <v>2.8158</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0.296</v>
+      </c>
       <c r="U11" t="n">
-        <v>20.0383</v>
+        <v>20.9483</v>
       </c>
       <c r="V11" t="n">
-        <v>8.051</v>
+        <v>11.4515</v>
       </c>
       <c r="W11" t="n">
-        <v>0.4245</v>
+        <v>0.07820000000000001</v>
       </c>
       <c r="X11" t="n">
-        <v>28.0487</v>
+        <v>35.1206</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.6357</v>
+        <v>0.4069</v>
       </c>
       <c r="Z11" t="n">
-        <v>3.997</v>
+        <v>3.3572</v>
       </c>
       <c r="AA11" t="n">
-        <v>33.1059</v>
+        <v>38.9629</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.2272</v>
+        <v>0.1166</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.4536</v>
+        <v>0.3891</v>
       </c>
       <c r="AD11" t="n">
-        <v>85.73090000000001</v>
+        <v>51.1128</v>
       </c>
       <c r="AE11" t="n">
-        <v>249.0554</v>
+        <v>226.607</v>
       </c>
       <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="n">
-        <v>0.9824000000000001</v>
+        <v>0.6336000000000001</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2.4086</v>
+        <v>1.1795</v>
       </c>
       <c r="C12" t="n">
-        <v>17.6396</v>
-      </c>
-      <c r="D12" t="inlineStr"/>
+        <v>9.6433</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.3825</v>
+      </c>
       <c r="E12" t="n">
-        <v>68.43210000000001</v>
+        <v>68.1784</v>
       </c>
       <c r="F12" t="n">
-        <v>3.9223</v>
+        <v>0.0506</v>
       </c>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="n">
-        <v>1.8786</v>
+        <v>0.7991</v>
       </c>
       <c r="I12" t="n">
-        <v>207.0679</v>
+        <v>167.6607</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="n">
-        <v>0.5473</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0.2359</v>
-      </c>
+        <v>0.7194</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
-        <v>15.8153</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+        <v>8.1701</v>
+      </c>
+      <c r="N12" t="n">
+        <v>8.107100000000001</v>
+      </c>
       <c r="O12" t="n">
-        <v>27.7184</v>
+        <v>30.9911</v>
       </c>
       <c r="P12" t="n">
-        <v>7.6338</v>
+        <v>11.6787</v>
       </c>
       <c r="Q12" t="n">
-        <v>68.9794</v>
+        <v>68.8978</v>
       </c>
       <c r="R12" t="n">
-        <v>4.5554</v>
+        <v>6.0741</v>
       </c>
       <c r="S12" t="n">
-        <v>3.6644</v>
+        <v>2.8213</v>
       </c>
       <c r="T12" t="n">
-        <v>0.2509</v>
+        <v>0.3404</v>
       </c>
       <c r="U12" t="n">
-        <v>21.5621</v>
+        <v>21.5801</v>
       </c>
       <c r="V12" t="n">
-        <v>9.1691</v>
+        <v>12.2937</v>
       </c>
       <c r="W12" t="n">
-        <v>0.3691</v>
+        <v>0.0765</v>
       </c>
       <c r="X12" t="n">
-        <v>29.9605</v>
+        <v>38.4603</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.8663999999999999</v>
+        <v>0.4683</v>
       </c>
       <c r="Z12" t="n">
-        <v>3.1066</v>
+        <v>3.5718</v>
       </c>
       <c r="AA12" t="n">
-        <v>34.3026</v>
+        <v>42.5769</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.2893</v>
+        <v>0.1041</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.4856</v>
+        <v>0.4349</v>
       </c>
       <c r="AD12" t="n">
-        <v>84.2543</v>
+        <v>46.0696</v>
       </c>
       <c r="AE12" t="n">
-        <v>256.3484</v>
+        <v>220.2319</v>
       </c>
       <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="n">
-        <v>1.0628</v>
+        <v>0.6082</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2013年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2.4845</v>
+        <v>1.0642</v>
       </c>
       <c r="C13" t="n">
-        <v>18.1881</v>
+        <v>9.136200000000001</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0035</v>
+        <v>0.4321</v>
       </c>
       <c r="E13" t="n">
-        <v>66.27209999999999</v>
+        <v>68.9448</v>
       </c>
       <c r="F13" t="n">
-        <v>2.8415</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.043</v>
-      </c>
+        <v>0.0554</v>
+      </c>
+      <c r="G13" t="inlineStr"/>
       <c r="H13" t="n">
-        <v>1.6077</v>
+        <v>0.6921</v>
       </c>
       <c r="I13" t="n">
-        <v>205.4961</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.0043</v>
-      </c>
+        <v>165.4455</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="n">
-        <v>0.7039</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0.2026</v>
-      </c>
+        <v>0.7050999999999999</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
-        <v>14.819</v>
+        <v>7.5398</v>
       </c>
       <c r="N13" t="n">
-        <v>0.024</v>
+        <v>10.4435</v>
       </c>
       <c r="O13" t="n">
-        <v>28.8462</v>
+        <v>34.2791</v>
       </c>
       <c r="P13" t="n">
-        <v>8.146100000000001</v>
+        <v>13.2031</v>
       </c>
       <c r="Q13" t="n">
-        <v>66.976</v>
+        <v>69.6499</v>
       </c>
       <c r="R13" t="n">
-        <v>4.8548</v>
+        <v>5.4535</v>
       </c>
       <c r="S13" t="n">
-        <v>3.9988</v>
+        <v>2.1446</v>
       </c>
       <c r="T13" t="n">
-        <v>0.4432</v>
+        <v>2.3135</v>
       </c>
       <c r="U13" t="n">
-        <v>21.6019</v>
+        <v>21.9298</v>
       </c>
       <c r="V13" t="n">
-        <v>9.4636</v>
+        <v>11.9628</v>
       </c>
       <c r="W13" t="n">
-        <v>0.3597</v>
+        <v>0.06909999999999999</v>
       </c>
       <c r="X13" t="n">
-        <v>31.0055</v>
+        <v>41.6143</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.8037</v>
+        <v>0.5224</v>
       </c>
       <c r="Z13" t="n">
-        <v>5.601</v>
+        <v>4.2694</v>
       </c>
       <c r="AA13" t="n">
-        <v>37.7699</v>
+        <v>46.4752</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.2499</v>
+        <v>0.0945</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.4028</v>
+        <v>0.4564</v>
       </c>
       <c r="AD13" t="n">
-        <v>82.2024</v>
+        <v>39.9839</v>
       </c>
       <c r="AE13" t="n">
-        <v>255.9442</v>
+        <v>221.6544</v>
       </c>
       <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="n">
-        <v>1.4684</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>2.3644</v>
-      </c>
-      <c r="C14" t="n">
-        <v>16.9936</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.0015</v>
-      </c>
-      <c r="E14" t="n">
-        <v>64.4552</v>
-      </c>
-      <c r="F14" t="n">
-        <v>3.7528</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0.0381</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1.5318</v>
-      </c>
-      <c r="I14" t="n">
-        <v>199.3246</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.0029</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0.6715</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0.1826</v>
-      </c>
-      <c r="M14" t="n">
-        <v>12.2751</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0.0289</v>
-      </c>
-      <c r="O14" t="n">
-        <v>28.2612</v>
-      </c>
-      <c r="P14" t="n">
-        <v>8.8728</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>65.1267</v>
-      </c>
-      <c r="R14" t="n">
-        <v>5.3198</v>
-      </c>
-      <c r="S14" t="n">
-        <v>3.4549</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0.2365</v>
-      </c>
-      <c r="U14" t="n">
-        <v>22.5813</v>
-      </c>
-      <c r="V14" t="n">
-        <v>9.817299999999999</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0.3554</v>
-      </c>
-      <c r="X14" t="n">
-        <v>29.3635</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>0.7119</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>6.0653</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>36.4961</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>0.2236</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>0.5149</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>82.0391</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>250.1671</v>
-      </c>
-      <c r="AF14" t="inlineStr"/>
-      <c r="AG14" t="n">
-        <v>1.1173</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>2.3032</v>
-      </c>
-      <c r="C15" t="n">
-        <v>15.7269</v>
-      </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="n">
-        <v>62.9833</v>
-      </c>
-      <c r="F15" t="n">
-        <v>3.9144</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0.041</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1.6087</v>
-      </c>
-      <c r="I15" t="n">
-        <v>195.5476</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.003</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0.6086</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0.0767</v>
-      </c>
-      <c r="M15" t="n">
-        <v>12.3826</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0.2937</v>
-      </c>
-      <c r="O15" t="n">
-        <v>28.4055</v>
-      </c>
-      <c r="P15" t="n">
-        <v>10.079</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>63.5919</v>
-      </c>
-      <c r="R15" t="n">
-        <v>6.0466</v>
-      </c>
-      <c r="S15" t="n">
-        <v>3.7363</v>
-      </c>
-      <c r="T15" t="n">
-        <v>0.2017</v>
-      </c>
-      <c r="U15" t="n">
-        <v>24.1248</v>
-      </c>
-      <c r="V15" t="n">
-        <v>10.2258</v>
-      </c>
-      <c r="W15" t="n">
-        <v>0.342</v>
-      </c>
-      <c r="X15" t="n">
-        <v>30.4472</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>0.6854</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>6.2537</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>37.7283</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>0.1207</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>0.4559</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>78.60720000000001</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>248.0779</v>
-      </c>
-      <c r="AF15" t="inlineStr"/>
-      <c r="AG15" t="n">
-        <v>1.0523</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>2.1032</v>
-      </c>
-      <c r="C16" t="n">
-        <v>13.6436</v>
-      </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="n">
-        <v>62.4516</v>
-      </c>
-      <c r="F16" t="n">
-        <v>4.2148</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0.0401</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1.556</v>
-      </c>
-      <c r="I16" t="n">
-        <v>193.7662</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.0026</v>
-      </c>
-      <c r="K16" t="n">
-        <v>1.983</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0.0751</v>
-      </c>
-      <c r="M16" t="n">
-        <v>11.5099</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0.3646</v>
-      </c>
-      <c r="O16" t="n">
-        <v>26.7233</v>
-      </c>
-      <c r="P16" t="n">
-        <v>10.6119</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>64.4346</v>
-      </c>
-      <c r="R16" t="n">
-        <v>5.8742</v>
-      </c>
-      <c r="S16" t="n">
-        <v>3.8013</v>
-      </c>
-      <c r="T16" t="n">
-        <v>0.2163</v>
-      </c>
-      <c r="U16" t="n">
-        <v>24.5025</v>
-      </c>
-      <c r="V16" t="n">
-        <v>10.3959</v>
-      </c>
-      <c r="W16" t="n">
-        <v>0.3047</v>
-      </c>
-      <c r="X16" t="n">
-        <v>31.0898</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>0.4835</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>6.6215</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>38.4995</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>0.1178</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>0.4713</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>76.2456</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>244.992</v>
-      </c>
-      <c r="AF16" t="inlineStr"/>
-      <c r="AG16" t="n">
-        <v>0.9315</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>1.3811</v>
-      </c>
-      <c r="C17" t="n">
-        <v>12.1661</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0.0163</v>
-      </c>
-      <c r="E17" t="n">
-        <v>64.9436</v>
-      </c>
-      <c r="F17" t="n">
-        <v>4.5968</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0.0384</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1.5674</v>
-      </c>
-      <c r="I17" t="n">
-        <v>185.2219</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.0035</v>
-      </c>
-      <c r="K17" t="n">
-        <v>1.8954</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0.07389999999999999</v>
-      </c>
-      <c r="M17" t="n">
-        <v>11.0215</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0.3663</v>
-      </c>
-      <c r="O17" t="n">
-        <v>24.8204</v>
-      </c>
-      <c r="P17" t="n">
-        <v>10.8906</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>66.839</v>
-      </c>
-      <c r="R17" t="n">
-        <v>6.3255</v>
-      </c>
-      <c r="S17" t="n">
-        <v>3.7004</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0.2435</v>
-      </c>
-      <c r="U17" t="n">
-        <v>24.8748</v>
-      </c>
-      <c r="V17" t="n">
-        <v>10.0086</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0.1163</v>
-      </c>
-      <c r="X17" t="n">
-        <v>33.2997</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>0.4072</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>5.7973</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>39.6205</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>0.1158</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>0.4343</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>64.72790000000001</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>234.9171</v>
-      </c>
-      <c r="AF17" t="inlineStr"/>
-      <c r="AG17" t="n">
-        <v>0.8955</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>1.3769</v>
-      </c>
-      <c r="C18" t="n">
-        <v>11.4942</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0.06569999999999999</v>
-      </c>
-      <c r="E18" t="n">
-        <v>68.1283</v>
-      </c>
-      <c r="F18" t="n">
-        <v>5.045</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0.0375</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0.8796</v>
-      </c>
-      <c r="I18" t="n">
-        <v>184.8283</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.0026</v>
-      </c>
-      <c r="K18" t="n">
-        <v>1.4224</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0.0902</v>
-      </c>
-      <c r="M18" t="n">
-        <v>9.5909</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0.523</v>
-      </c>
-      <c r="O18" t="n">
-        <v>27.5461</v>
-      </c>
-      <c r="P18" t="n">
-        <v>14.0863</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>69.55070000000001</v>
-      </c>
-      <c r="R18" t="n">
-        <v>5.8834</v>
-      </c>
-      <c r="S18" t="n">
-        <v>3.0991</v>
-      </c>
-      <c r="T18" t="n">
-        <v>0.1728</v>
-      </c>
-      <c r="U18" t="n">
-        <v>26.6201</v>
-      </c>
-      <c r="V18" t="n">
-        <v>12.4198</v>
-      </c>
-      <c r="W18" t="n">
-        <v>0.0917</v>
-      </c>
-      <c r="X18" t="n">
-        <v>34.6006</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>0.4435</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>5.3189</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>40.4547</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>0.1303</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>0.3975</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>63.189</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>238.9945</v>
-      </c>
-      <c r="AF18" t="inlineStr"/>
-      <c r="AG18" t="n">
-        <v>0.6356000000000001</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>1.2831</v>
-      </c>
-      <c r="C19" t="n">
-        <v>12.4016</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0.4265</v>
-      </c>
-      <c r="E19" t="n">
-        <v>67.7948</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0.0447</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0.0372</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0.787</v>
-      </c>
-      <c r="I19" t="n">
-        <v>169.3848</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.0013</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.8135</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0.0781</v>
-      </c>
-      <c r="M19" t="n">
-        <v>8.7745</v>
-      </c>
-      <c r="N19" t="n">
-        <v>7.6217</v>
-      </c>
-      <c r="O19" t="n">
-        <v>36.2739</v>
-      </c>
-      <c r="P19" t="n">
-        <v>14.541</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>68.6083</v>
-      </c>
-      <c r="R19" t="n">
-        <v>6.3403</v>
-      </c>
-      <c r="S19" t="n">
-        <v>2.8158</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0.296</v>
-      </c>
-      <c r="U19" t="n">
-        <v>20.9483</v>
-      </c>
-      <c r="V19" t="n">
-        <v>11.4515</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0.07820000000000001</v>
-      </c>
-      <c r="X19" t="n">
-        <v>35.1206</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>0.4069</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>3.3572</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>38.9629</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>0.1166</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>0.3891</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>51.1128</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>226.607</v>
-      </c>
-      <c r="AF19" t="inlineStr"/>
-      <c r="AG19" t="n">
-        <v>0.6336000000000001</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>1.1795</v>
-      </c>
-      <c r="C20" t="n">
-        <v>9.6433</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0.3825</v>
-      </c>
-      <c r="E20" t="n">
-        <v>68.1784</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0.0506</v>
-      </c>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="n">
-        <v>0.7991</v>
-      </c>
-      <c r="I20" t="n">
-        <v>167.6607</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>0.7194</v>
-      </c>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>8.1701</v>
-      </c>
-      <c r="N20" t="n">
-        <v>8.107100000000001</v>
-      </c>
-      <c r="O20" t="n">
-        <v>30.9911</v>
-      </c>
-      <c r="P20" t="n">
-        <v>11.6787</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>68.8978</v>
-      </c>
-      <c r="R20" t="n">
-        <v>6.0741</v>
-      </c>
-      <c r="S20" t="n">
-        <v>2.8213</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0.3404</v>
-      </c>
-      <c r="U20" t="n">
-        <v>21.5801</v>
-      </c>
-      <c r="V20" t="n">
-        <v>12.2937</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0.0765</v>
-      </c>
-      <c r="X20" t="n">
-        <v>38.4603</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>0.4683</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>3.5718</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>42.5769</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>0.1041</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>0.4349</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>46.0696</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>220.2319</v>
-      </c>
-      <c r="AF20" t="inlineStr"/>
-      <c r="AG20" t="n">
-        <v>0.6082</v>
+        <v>0.5537</v>
       </c>
     </row>
   </sheetData>
